--- a/bin/Item.xlsx
+++ b/bin/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7650" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>ErrorID</t>
   </si>
@@ -26,10 +26,10 @@
     <t>ErrorMsg</t>
   </si>
   <si>
-    <t>systemfailed</t>
+    <t>Invalid</t>
   </si>
   <si>
-    <t>系统失败</t>
+    <t>systemfailed</t>
   </si>
   <si>
     <t>loginfailed</t>
@@ -44,9 +44,6 @@
     <t>系统失败78</t>
   </si>
   <si>
-    <t>何莉莉</t>
-  </si>
-  <si>
     <t>SYstemHello</t>
   </si>
   <si>
@@ -59,9 +56,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,7 +76,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,6 +160,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -110,35 +184,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,56 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,25 +228,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,78 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,11 +422,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,6 +472,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,56 +519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
@@ -1026,39 +1023,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="1">
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1">
         <v>100</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1072,13 +1074,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
@@ -1100,26 +1102,15 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5"/>
     <row r="4" s="1" customFormat="1" ht="16.5"/>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
